--- a/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND6/cond6_loc8_processed.xlsx
+++ b/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND6/cond6_loc8_processed.xlsx
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.05882569259259256</v>
+        <v>58.82569259259257</v>
       </c>
     </row>
   </sheetData>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.007352941176470588</v>
+        <v>0.7352941176470589</v>
       </c>
     </row>
   </sheetData>
